--- a/Шаблоны/0420502_0420503_Квартал - 3_1.xlsx
+++ b/Шаблоны/0420502_0420503_Квартал - 3_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouds\YandexDisk\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник\YandexDisk-tovanchov\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAAB81C-23F7-452E-9B4E-AA1D4C83324A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881E14D-2FD0-4BF7-BB44-42E274C53955}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="65" activeTab="68" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="61" activeTab="64" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0420502 Пояснительная записка к" sheetId="2" r:id="rId1"/>
@@ -18299,13 +18299,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A23D717-96BB-406A-B5CA-5390F4287989}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="19.85546875" style="130" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="130" customWidth="1"/>
+    <col min="2" max="7" width="19.85546875" style="130" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="130"/>
   </cols>
   <sheetData>
@@ -19512,7 +19513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299F66C7-9E9F-4969-8D4F-3A1B19466B9B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -19606,7 +19607,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Шаблоны/0420502_0420503_Квартал - 3_1.xlsx
+++ b/Шаблоны/0420502_0420503_Квартал - 3_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник\YandexDisk-tovanchov\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouds\YandexDisk\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881E14D-2FD0-4BF7-BB44-42E274C53955}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0337059-E881-4C64-89E0-D9D733BF6456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="61" activeTab="64" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0420502 Пояснительная записка к" sheetId="2" r:id="rId1"/>
@@ -88,19 +88,11 @@
     <sheet name="_dropDownSheet" sheetId="131" state="hidden" r:id="rId73"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5002" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="1263">
   <si>
     <t>0420502 Пояснительная записка к справочной информации о стоимости чистых активов ( Информация о фактах совершения ошибок, потребовавших перерасчета стоимости чистых активов, а также о принятых мерах по исправлению и последствиях исправления таких ошибок</t>
   </si>
@@ -5310,9 +5302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5394,11 +5384,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5417,7 +5411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>65</v>
       </c>
@@ -5429,7 +5423,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>66</v>
       </c>
@@ -5453,7 +5447,7 @@
       <c r="E7" s="139"/>
       <c r="F7" s="139"/>
     </row>
-    <row r="8" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
@@ -5485,7 +5479,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>147</v>
       </c>
@@ -5493,7 +5487,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>149</v>
       </c>
@@ -5501,7 +5495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
@@ -5509,7 +5503,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>153</v>
       </c>
@@ -5517,7 +5511,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>151</v>
       </c>
@@ -5525,7 +5519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>156</v>
       </c>
@@ -5533,7 +5527,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>158</v>
       </c>
@@ -5557,11 +5551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5580,7 +5578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>65</v>
       </c>
@@ -5592,7 +5590,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>66</v>
       </c>
@@ -5616,7 +5614,7 @@
       <c r="E7" s="139"/>
       <c r="F7" s="139"/>
     </row>
-    <row r="8" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
@@ -5648,7 +5646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>166</v>
       </c>
@@ -5656,7 +5654,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>168</v>
       </c>
@@ -5664,7 +5662,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>170</v>
       </c>
@@ -5672,7 +5670,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>172</v>
       </c>
@@ -5680,7 +5678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>174</v>
       </c>
@@ -5688,7 +5686,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>176</v>
       </c>
@@ -5696,7 +5694,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>178</v>
       </c>
@@ -5704,7 +5702,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>180</v>
       </c>
@@ -5712,7 +5710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>182</v>
       </c>
@@ -5720,7 +5718,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>184</v>
       </c>
@@ -5728,7 +5726,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>186</v>
       </c>
@@ -5736,7 +5734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>188</v>
       </c>
@@ -5744,7 +5742,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>190</v>
       </c>
@@ -5752,7 +5750,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>192</v>
       </c>
@@ -5760,7 +5758,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>194</v>
       </c>
@@ -5768,7 +5766,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>196</v>
       </c>
@@ -5792,11 +5790,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5827,7 +5829,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>66</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>204</v>
       </c>
@@ -5891,7 +5893,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>206</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>208</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>210</v>
       </c>
@@ -5915,7 +5917,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>212</v>
       </c>
@@ -5923,7 +5925,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>214</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>216</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>218</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>196</v>
       </c>
@@ -5971,11 +5973,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="59" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="6" width="36.140625" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5994,7 +6000,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>65</v>
       </c>
@@ -6006,7 +6012,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>66</v>
       </c>
@@ -6030,7 +6036,7 @@
       <c r="E7" s="139"/>
       <c r="F7" s="139"/>
     </row>
-    <row r="8" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
@@ -6062,7 +6068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>225</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>227</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>229</v>
       </c>
@@ -6086,7 +6092,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>231</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>233</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>235</v>
       </c>
@@ -6130,7 +6136,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6161,7 +6168,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>66</v>
       </c>
@@ -6217,7 +6224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>241</v>
       </c>
@@ -6225,7 +6232,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>243</v>
       </c>
@@ -6257,11 +6264,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6292,7 +6302,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>66</v>
       </c>
@@ -6348,7 +6358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>251</v>
       </c>
@@ -6356,7 +6366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>253</v>
       </c>
@@ -6364,7 +6374,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>255</v>
       </c>
@@ -6372,7 +6382,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>257</v>
       </c>
@@ -6380,7 +6390,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>259</v>
       </c>
@@ -6388,7 +6398,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>261</v>
       </c>
@@ -6396,7 +6406,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>263</v>
       </c>
@@ -6404,7 +6414,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>265</v>
       </c>
@@ -18013,9 +18023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18299,9 +18307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A23D717-96BB-406A-B5CA-5390F4287989}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18337,7 +18343,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -18385,7 +18391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -18396,30 +18402,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="132">
-        <f>'0420502 Справка о стоимости чис'!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="130">
-        <f>'0420502 Справка о стоимости чис'!C10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="130">
-        <f>'0420502 Справка о стоимости чис'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="130">
-        <f>'0420502 Справка о стоимости чис'!E10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="130">
-        <f>'0420502 Справка о стоимости чис'!F10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="130">
-        <f>'0420502 Справка о стоимости чис'!G10</f>
-        <v>0</v>
-      </c>
+      <c r="A10" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18436,9 +18419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953EF125-7878-434B-8FAA-565613EC4A50}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18468,9 +18449,8 @@
         <v>65</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="133" t="str">
-        <f xml:space="preserve"> "Z= Идентификатор АИФ ПИФ-" &amp; '0420503 Отчет о приросте об уме'!A10</f>
-        <v>Z= Идентификатор АИФ ПИФ-0</v>
+      <c r="C5" s="133" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -18503,14 +18483,6 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="128" t="s">
         <v>1123</v>
-      </c>
-      <c r="B9" s="130" t="str">
-        <f>REPLACE('0420502 Справка о стоимости ч_2'!B9,9,2,"01") &amp; " - " &amp; '0420502 Справка о стоимости ч_2'!B9</f>
-        <v xml:space="preserve">01 - </v>
-      </c>
-      <c r="C9" s="130">
-        <f>'0420502 Справка о стоимости ч_2'!D9</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18532,7 +18504,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18558,15 +18530,14 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="133" t="str">
-        <f xml:space="preserve"> "Z= Идентификатор АИФ ПИФ-" &amp; '0420503 Отчет о приросте об уме'!A10</f>
-        <v>Z= Идентификатор АИФ ПИФ-0</v>
+      <c r="D5" s="133" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.25">
@@ -19069,9 +19040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ABA93B-4878-42A2-BE74-FEEAF0B54803}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19096,14 +19065,13 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="133" t="str">
-        <f xml:space="preserve"> "Z= Идентификатор АИФ ПИФ-" &amp; '0420503 Отчет о приросте об уме'!A10</f>
-        <v>Z= Идентификатор АИФ ПИФ-0</v>
+      <c r="C5" s="133" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -19513,9 +19481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299F66C7-9E9F-4969-8D4F-3A1B19466B9B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19544,9 +19510,8 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="133" t="str">
-        <f xml:space="preserve"> "Z= Идентификатор АИФ ПИФ-" &amp; '0420503 Отчет о приросте об уме'!A10</f>
-        <v>Z= Идентификатор АИФ ПИФ-0</v>
+      <c r="D5" s="133" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -19727,7 +19692,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19761,9 +19726,8 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="133" t="str">
-        <f xml:space="preserve"> "Z= Идентификатор АИФ ПИФ-" &amp; '0420503 Отчет о приросте об уме'!A10</f>
-        <v>Z= Идентификатор АИФ ПИФ-0</v>
+      <c r="H5" s="133" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -20145,10 +20109,6 @@
       <c r="A7" s="128" t="s">
         <v>686</v>
       </c>
-      <c r="B7" s="130">
-        <f>'0420502 Справка о стоимости _56'!B7</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20162,9 +20122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C76509F-5821-43C1-96D4-CB5F4CBBF8DC}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20225,26 +20183,10 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="132">
-        <f>'0420502 Справка о стоимости чис'!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="130">
-        <f>'0420502 Справка о стоимости _57'!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="131">
-        <f>'0420502 Справка о стоимости _57'!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="131">
-        <f>'0420502 Справка о стоимости _57'!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="131">
-        <f>'0420502 Справка о стоимости _57'!E8</f>
-        <v>0</v>
-      </c>
+      <c r="A8" s="132"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Шаблоны/0420502_0420503_Квартал - 3_1.xlsx
+++ b/Шаблоны/0420502_0420503_Квартал - 3_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouds\YandexDisk\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник\YandexDisk-atovanchov\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0337059-E881-4C64-89E0-D9D733BF6456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C9F9A-1E92-465D-A026-65EBD92E8F7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4407,7 +4407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4810,6 +4810,9 @@
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5430,22 +5433,22 @@
       <c r="B6" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
@@ -5597,22 +5600,22 @@
       <c r="B6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
@@ -5836,22 +5839,22 @@
       <c r="B6" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
@@ -6019,22 +6022,22 @@
       <c r="B6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
@@ -6175,22 +6178,22 @@
       <c r="B6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="148" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
@@ -6309,22 +6312,22 @@
       <c r="B6" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
@@ -6488,22 +6491,22 @@
       <c r="B6" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="150" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
@@ -6630,19 +6633,19 @@
       <c r="A6" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="151" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
     </row>
     <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
@@ -6731,22 +6734,22 @@
       <c r="B6" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="152" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
@@ -6876,10 +6879,10 @@
       <c r="B6" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="139"/>
+      <c r="D6" s="140"/>
     </row>
     <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
@@ -7044,27 +7047,27 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="153" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="154" t="s">
         <v>319</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
     </row>
     <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="39" t="s">
         <v>320</v>
       </c>
@@ -7094,9 +7097,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="39" t="s">
         <v>69</v>
       </c>
@@ -7278,28 +7281,28 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="154" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="155" t="s">
         <v>333</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="154"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="41" t="s">
         <v>320</v>
       </c>
@@ -7332,9 +7335,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="41" t="s">
         <v>69</v>
       </c>
@@ -7535,31 +7538,31 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="155" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="156" t="s">
         <v>340</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
     </row>
     <row r="7" spans="1:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="43" t="s">
         <v>341</v>
       </c>
@@ -7601,9 +7604,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="43" t="s">
         <v>69</v>
       </c>
@@ -7826,29 +7829,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="156" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="157" t="s">
         <v>355</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="156"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="45" t="s">
         <v>356</v>
       </c>
@@ -7884,9 +7887,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="156"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="45" t="s">
         <v>69</v>
       </c>
@@ -8071,24 +8074,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="157" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="158" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="47" t="s">
         <v>366</v>
       </c>
@@ -8115,8 +8118,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="47" t="s">
         <v>69</v>
       </c>
@@ -8272,29 +8275,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="158" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="159" t="s">
         <v>374</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="49" t="s">
         <v>341</v>
       </c>
@@ -8330,9 +8333,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="49" t="s">
         <v>69</v>
       </c>
@@ -8524,30 +8527,30 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="159" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="160" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="159"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="51" t="s">
         <v>341</v>
       </c>
@@ -8586,9 +8589,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="159"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="51" t="s">
         <v>69</v>
       </c>
@@ -8790,30 +8793,30 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="160" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="161" t="s">
         <v>387</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="53" t="s">
         <v>341</v>
       </c>
@@ -8852,9 +8855,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="53" t="s">
         <v>69</v>
       </c>
@@ -9063,38 +9066,38 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="161" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="162" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
     </row>
     <row r="7" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="55" t="s">
         <v>341</v>
       </c>
@@ -9151,10 +9154,10 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
       <c r="E8" s="55" t="s">
         <v>69</v>
       </c>
@@ -9439,31 +9442,31 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="162" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="163" t="s">
         <v>412</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="57" t="s">
         <v>413</v>
       </c>
@@ -9499,10 +9502,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
       <c r="E8" s="57" t="s">
         <v>69</v>
       </c>
@@ -9759,30 +9762,30 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="163" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="164" t="s">
         <v>423</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="59" t="s">
         <v>341</v>
       </c>
@@ -9821,9 +9824,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="59" t="s">
         <v>69</v>
       </c>
@@ -10020,24 +10023,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="164" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="165" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="61" t="s">
         <v>432</v>
       </c>
@@ -10064,8 +10067,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="164"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="61" t="s">
         <v>69</v>
       </c>
@@ -10222,30 +10225,30 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="165" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="166" t="s">
         <v>439</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="63" t="s">
         <v>341</v>
       </c>
@@ -10284,9 +10287,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="63" t="s">
         <v>69</v>
       </c>
@@ -10489,31 +10492,31 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="166" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="167" t="s">
         <v>445</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
     </row>
     <row r="7" spans="1:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="65" t="s">
         <v>341</v>
       </c>
@@ -10555,9 +10558,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="65" t="s">
         <v>69</v>
       </c>
@@ -10792,29 +10795,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="167" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="168" t="s">
         <v>454</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="167"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="67" t="s">
         <v>341</v>
       </c>
@@ -10850,9 +10853,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="67" t="s">
         <v>69</v>
       </c>
@@ -11064,39 +11067,39 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="168" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="169" t="s">
         <v>462</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
     </row>
     <row r="7" spans="1:23" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="69" t="s">
         <v>341</v>
       </c>
@@ -11156,10 +11159,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
       <c r="E8" s="69" t="s">
         <v>69</v>
       </c>
@@ -11467,31 +11470,31 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="169" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="170" t="s">
         <v>471</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
     </row>
     <row r="7" spans="1:16" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="71" t="s">
         <v>472</v>
       </c>
@@ -11533,9 +11536,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="71" t="s">
         <v>69</v>
       </c>
@@ -11765,30 +11768,30 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="170" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="171" t="s">
         <v>481</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="73" t="s">
         <v>341</v>
       </c>
@@ -11827,9 +11830,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="73" t="s">
         <v>69</v>
       </c>
@@ -12045,25 +12048,25 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="172" t="s">
         <v>488</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
     </row>
     <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="171"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="75" t="s">
         <v>366</v>
       </c>
@@ -12093,8 +12096,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="75" t="s">
         <v>69</v>
       </c>
@@ -12274,24 +12277,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="172" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="173" t="s">
         <v>495</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="77" t="s">
         <v>496</v>
       </c>
@@ -12318,8 +12321,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="77" t="s">
         <v>69</v>
       </c>
@@ -12490,15 +12493,15 @@
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
       <c r="J6" s="7" t="s">
         <v>94</v>
       </c>
@@ -12599,7 +12602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12642,27 +12647,27 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="173" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="174" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
     </row>
     <row r="7" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="79" t="s">
         <v>506</v>
       </c>
@@ -12698,8 +12703,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="173"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="174"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="79" t="s">
         <v>69</v>
       </c>
@@ -12853,7 +12858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12897,28 +12904,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="174" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="175" t="s">
         <v>513</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="174"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="175"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="81" t="s">
         <v>514</v>
       </c>
@@ -12957,8 +12964,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="174"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="175"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="81" t="s">
         <v>69</v>
       </c>
@@ -13122,7 +13129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13165,27 +13174,27 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="175" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="176" t="s">
         <v>522</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
     </row>
     <row r="7" spans="1:13" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="175"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="83" t="s">
         <v>523</v>
       </c>
@@ -13221,8 +13230,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="83" t="s">
         <v>69</v>
       </c>
@@ -13364,11 +13373,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="12" width="36.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13407,27 +13421,27 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="176" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="177" t="s">
         <v>534</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-    </row>
-    <row r="7" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="176"/>
-      <c r="B7" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+    </row>
+    <row r="7" spans="1:13" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="177"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="85" t="s">
         <v>523</v>
       </c>
@@ -13463,8 +13477,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="176"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="85" t="s">
         <v>69</v>
       </c>
@@ -13516,7 +13530,7 @@
       <c r="L9" s="85"/>
       <c r="M9" s="85"/>
     </row>
-    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="s">
         <v>540</v>
       </c>
@@ -13606,11 +13620,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="12" width="30.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="19.85546875" style="129" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13649,27 +13668,27 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="177" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="178" t="s">
         <v>542</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-    </row>
-    <row r="7" spans="1:13" ht="382.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="177"/>
-      <c r="B7" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+    </row>
+    <row r="7" spans="1:13" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="178"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="87" t="s">
         <v>523</v>
       </c>
@@ -13705,8 +13724,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="87" t="s">
         <v>69</v>
       </c>
@@ -13758,7 +13777,7 @@
       <c r="L9" s="87"/>
       <c r="M9" s="87"/>
     </row>
-    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
         <v>545</v>
       </c>
@@ -13848,7 +13867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13891,27 +13912,27 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="178" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="179" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
     </row>
     <row r="7" spans="1:13" ht="204" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="89" t="s">
         <v>523</v>
       </c>
@@ -13947,8 +13968,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="89" t="s">
         <v>69</v>
       </c>
@@ -14090,7 +14111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14126,20 +14149,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="179" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="180" t="s">
         <v>552</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="179"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="91" t="s">
         <v>553</v>
       </c>
@@ -14154,8 +14177,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="179"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="91" t="s">
         <v>69</v>
       </c>
@@ -14271,29 +14294,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="180" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="181" t="s">
         <v>560</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="180"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="93" t="s">
         <v>561</v>
       </c>
@@ -14329,9 +14352,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="93" t="s">
         <v>69</v>
       </c>
@@ -14542,31 +14565,31 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="181" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="182" t="s">
         <v>572</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
     </row>
     <row r="7" spans="1:16" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="95" t="s">
         <v>561</v>
       </c>
@@ -14608,9 +14631,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="181"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="95" t="s">
         <v>69</v>
       </c>
@@ -14839,29 +14862,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="182" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="183" t="s">
         <v>580</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="182"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="97" t="s">
         <v>561</v>
       </c>
@@ -14897,9 +14920,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="182"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="97" t="s">
         <v>69</v>
       </c>
@@ -15166,31 +15189,31 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="183" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="184" t="s">
         <v>585</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
     </row>
     <row r="7" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="183"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="99" t="s">
         <v>561</v>
       </c>
@@ -15232,9 +15255,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="183"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="99" t="s">
         <v>69</v>
       </c>
@@ -15420,7 +15443,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15461,24 +15484,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="184" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="185" t="s">
         <v>590</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="101" t="s">
         <v>591</v>
       </c>
@@ -15505,8 +15528,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="101" t="s">
         <v>69</v>
       </c>
@@ -15618,7 +15641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15658,31 +15683,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="185" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="186" t="s">
         <v>598</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="103" t="s">
         <v>599</v>
       </c>
       <c r="D7" s="103" t="s">
         <v>446</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="138" t="s">
         <v>398</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -15702,8 +15727,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="103" t="s">
         <v>69</v>
       </c>
@@ -15867,24 +15892,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="186" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="187" t="s">
         <v>607</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="105" t="s">
         <v>608</v>
       </c>
@@ -15911,8 +15936,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="105" t="s">
         <v>69</v>
       </c>
@@ -16080,22 +16105,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="187" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="188" t="s">
         <v>616</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="187"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="107" t="s">
         <v>617</v>
       </c>
@@ -16116,8 +16141,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="107" t="s">
         <v>69</v>
       </c>
@@ -16248,23 +16273,23 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="188" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="189" t="s">
         <v>626</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="188"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="109" t="s">
         <v>617</v>
       </c>
@@ -16288,8 +16313,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="109" t="s">
         <v>69</v>
       </c>
@@ -16428,10 +16453,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="111" t="s">
         <v>634</v>
       </c>
@@ -16449,8 +16474,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="111" t="s">
         <v>69</v>
       </c>
@@ -16567,21 +16592,21 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="190" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="191" t="s">
         <v>641</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="190"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="113" t="s">
         <v>642</v>
       </c>
@@ -16599,8 +16624,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="190"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="113" t="s">
         <v>69</v>
       </c>
@@ -16728,29 +16753,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="191" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="192" t="s">
         <v>649</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="115" t="s">
         <v>650</v>
       </c>
@@ -16786,9 +16811,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="115" t="s">
         <v>69</v>
       </c>
@@ -16998,31 +17023,31 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="192" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="193" t="s">
         <v>662</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
     </row>
     <row r="7" spans="1:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="117" t="s">
         <v>650</v>
       </c>
@@ -17064,9 +17089,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="193"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="117" t="s">
         <v>69</v>
       </c>
@@ -17368,29 +17393,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="193" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="194" t="s">
         <v>669</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="119" t="s">
         <v>650</v>
       </c>
@@ -17426,9 +17451,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="119" t="s">
         <v>69</v>
       </c>
@@ -17638,31 +17663,31 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="194" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="195" t="s">
         <v>678</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
     </row>
     <row r="7" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="194"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="121" t="s">
         <v>650</v>
       </c>
@@ -17704,9 +17729,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="121" t="s">
         <v>69</v>
       </c>
@@ -18068,30 +18093,30 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="195" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="196" t="s">
         <v>693</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="127" t="s">
         <v>341</v>
       </c>
@@ -18130,9 +18155,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="127" t="s">
         <v>69</v>
       </c>
@@ -18307,7 +18332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A23D717-96BB-406A-B5CA-5390F4287989}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18347,13 +18374,13 @@
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>1118</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -18419,7 +18446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953EF125-7878-434B-8FAA-565613EC4A50}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18457,10 +18486,10 @@
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>1121</v>
       </c>
-      <c r="C6" s="139"/>
+      <c r="C6" s="140"/>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -19515,10 +19544,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="1" t="s">
         <v>341</v>
       </c>
@@ -19527,8 +19556,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
@@ -19606,21 +19635,21 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="140" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="7" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="13" t="s">
         <v>109</v>
       </c>
@@ -19638,8 +19667,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="13" t="s">
         <v>69</v>
       </c>
@@ -19731,20 +19760,20 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="196" t="s">
+      <c r="E6" s="197" t="s">
         <v>1232</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -26254,11 +26283,11 @@
       <c r="A6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
@@ -26360,22 +26389,22 @@
       <c r="B6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
